--- a/graphs_com.xlsx
+++ b/graphs_com.xlsx
@@ -17,7 +17,7 @@
     <sheet name="652_1" sheetId="3" r:id="rId3"/>
     <sheet name="652_2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -264,7 +264,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>10000</c:v>
+            <c:v>10k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -345,12 +345,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DB2-4B52-B802-BAD005AA8DF3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>50000</c:v>
+            <c:v>50k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -428,12 +433,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8DB2-4B52-B802-BAD005AA8DF3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>100000</c:v>
+            <c:v>100k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -514,12 +524,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8DB2-4B52-B802-BAD005AA8DF3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>500000</c:v>
+            <c:v>500k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -600,12 +615,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8DB2-4B52-B802-BAD005AA8DF3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>1000000</c:v>
+            <c:v>1000k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -686,12 +706,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8DB2-4B52-B802-BAD005AA8DF3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>5000000</c:v>
+            <c:v>5000k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -775,6 +800,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8DB2-4B52-B802-BAD005AA8DF3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -918,7 +948,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48"/>
-          <c:min val="0"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1162,7 +1192,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>10000</c:v>
+            <c:v>10k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1240,12 +1270,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF71-45FD-9E08-4C87176A52EC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>50000</c:v>
+            <c:v>50k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1326,12 +1361,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF71-45FD-9E08-4C87176A52EC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>100000</c:v>
+            <c:v>100k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1412,12 +1452,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF71-45FD-9E08-4C87176A52EC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>500000</c:v>
+            <c:v>500k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1498,12 +1543,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AF71-45FD-9E08-4C87176A52EC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>1000000</c:v>
+            <c:v>1000k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1584,12 +1634,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AF71-45FD-9E08-4C87176A52EC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>5000000</c:v>
+            <c:v>5000k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1670,6 +1725,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AF71-45FD-9E08-4C87176A52EC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1812,7 +1872,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48"/>
-          <c:min val="0"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2046,7 +2106,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>10000</c:v>
+            <c:v>10k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2124,12 +2184,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79E7-4FD2-B2D5-96A0EFDFE510}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>50000</c:v>
+            <c:v>50k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2210,12 +2275,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-79E7-4FD2-B2D5-96A0EFDFE510}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>100000</c:v>
+            <c:v>100k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2296,12 +2366,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-79E7-4FD2-B2D5-96A0EFDFE510}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>500000</c:v>
+            <c:v>500k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2382,12 +2457,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-79E7-4FD2-B2D5-96A0EFDFE510}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>1000000</c:v>
+            <c:v>1000k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2468,12 +2548,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-79E7-4FD2-B2D5-96A0EFDFE510}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>5000000</c:v>
+            <c:v>5000k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2554,6 +2639,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-79E7-4FD2-B2D5-96A0EFDFE510}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2697,7 +2787,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
-          <c:min val="0"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2940,7 +3030,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>10000</c:v>
+            <c:v>10k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3021,12 +3111,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6623-4008-9994-32CAD56A1E01}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>50000</c:v>
+            <c:v>50k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3107,12 +3202,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6623-4008-9994-32CAD56A1E01}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>100000</c:v>
+            <c:v>100k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3190,12 +3290,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6623-4008-9994-32CAD56A1E01}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>500000</c:v>
+            <c:v>500k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3276,12 +3381,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6623-4008-9994-32CAD56A1E01}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>1000000</c:v>
+            <c:v>1000k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3362,12 +3472,17 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6623-4008-9994-32CAD56A1E01}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>5000000</c:v>
+            <c:v>5000k</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3454,6 +3569,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6623-4008-9994-32CAD56A1E01}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3597,7 +3717,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
-          <c:min val="0"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8945,7 +9065,7 @@
   <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
